--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N2">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O2">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P2">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q2">
-        <v>3104.223745146372</v>
+        <v>3036.917003490498</v>
       </c>
       <c r="R2">
-        <v>27938.01370631735</v>
+        <v>27332.25303141449</v>
       </c>
       <c r="S2">
-        <v>0.0306551770551905</v>
+        <v>0.0453153160161547</v>
       </c>
       <c r="T2">
-        <v>0.0306551770551905</v>
+        <v>0.0453153160161547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>100.095494</v>
       </c>
       <c r="O3">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P3">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q3">
-        <v>4235.100864426983</v>
+        <v>4285.918712792654</v>
       </c>
       <c r="R3">
-        <v>38115.90777984286</v>
+        <v>38573.2684151339</v>
       </c>
       <c r="S3">
-        <v>0.04182294109713983</v>
+        <v>0.06395227813816605</v>
       </c>
       <c r="T3">
-        <v>0.04182294109713983</v>
+        <v>0.06395227813816605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N4">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O4">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P4">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q4">
-        <v>5500.183328782198</v>
+        <v>5239.281995839056</v>
       </c>
       <c r="R4">
-        <v>49501.64995903978</v>
+        <v>47153.53796255151</v>
       </c>
       <c r="S4">
-        <v>0.05431602475287264</v>
+        <v>0.07817787547908515</v>
       </c>
       <c r="T4">
-        <v>0.05431602475287263</v>
+        <v>0.07817787547908514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N5">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O5">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P5">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q5">
-        <v>1314.07222094591</v>
+        <v>1330.761194479175</v>
       </c>
       <c r="R5">
-        <v>11826.64998851319</v>
+        <v>11976.85075031258</v>
       </c>
       <c r="S5">
-        <v>0.01297687277194152</v>
+        <v>0.01985693517489899</v>
       </c>
       <c r="T5">
-        <v>0.01297687277194152</v>
+        <v>0.01985693517489899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H6">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N6">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O6">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P6">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q6">
-        <v>5828.511758466708</v>
+        <v>4976.206542834917</v>
       </c>
       <c r="R6">
-        <v>52456.60582620037</v>
+        <v>44785.85888551425</v>
       </c>
       <c r="S6">
-        <v>0.05755837033442695</v>
+        <v>0.07425239866319794</v>
       </c>
       <c r="T6">
-        <v>0.05755837033442695</v>
+        <v>0.07425239866319791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N7">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O7">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P7">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q7">
-        <v>3726.933135989269</v>
+        <v>3602.892763234636</v>
       </c>
       <c r="R7">
-        <v>33542.39822390342</v>
+        <v>32426.03486911173</v>
       </c>
       <c r="S7">
-        <v>0.03680462638533816</v>
+        <v>0.05376051566461757</v>
       </c>
       <c r="T7">
-        <v>0.03680462638533816</v>
+        <v>0.05376051566461756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>100.095494</v>
       </c>
       <c r="O8">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P8">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q8">
-        <v>5084.664973189768</v>
+        <v>5084.664973189767</v>
       </c>
       <c r="R8">
-        <v>45761.98475870792</v>
+        <v>45761.98475870791</v>
       </c>
       <c r="S8">
-        <v>0.0502126514762898</v>
+        <v>0.07587075966565446</v>
       </c>
       <c r="T8">
-        <v>0.0502126514762898</v>
+        <v>0.07587075966565446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N9">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O9">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P9">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q9">
-        <v>6603.52383880356</v>
+        <v>6215.702031256751</v>
       </c>
       <c r="R9">
-        <v>59431.71454923203</v>
+        <v>55941.31828131077</v>
       </c>
       <c r="S9">
-        <v>0.06521185619535591</v>
+        <v>0.0927475138388436</v>
       </c>
       <c r="T9">
-        <v>0.06521185619535591</v>
+        <v>0.09274751383884358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N10">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O10">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P10">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q10">
-        <v>1577.676000637446</v>
+        <v>1578.768821035218</v>
       </c>
       <c r="R10">
-        <v>14199.08400573702</v>
+        <v>14208.91938931696</v>
       </c>
       <c r="S10">
-        <v>0.01558004226044772</v>
+        <v>0.0235575776221198</v>
       </c>
       <c r="T10">
-        <v>0.01558004226044772</v>
+        <v>0.02355757762211979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N11">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O11">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P11">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q11">
-        <v>6997.715174396485</v>
+        <v>5903.598458875981</v>
       </c>
       <c r="R11">
-        <v>62979.43656956837</v>
+        <v>53132.38612988383</v>
       </c>
       <c r="S11">
-        <v>0.06910461850191231</v>
+        <v>0.08809046460241403</v>
       </c>
       <c r="T11">
-        <v>0.06910461850191231</v>
+        <v>0.088090464602414</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N12">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O12">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P12">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q12">
-        <v>5051.938336073574</v>
+        <v>1673.802523189358</v>
       </c>
       <c r="R12">
-        <v>45467.44502466216</v>
+        <v>15064.22270870422</v>
       </c>
       <c r="S12">
-        <v>0.04988946573402925</v>
+        <v>0.02497562172419776</v>
       </c>
       <c r="T12">
-        <v>0.04988946573402925</v>
+        <v>0.02497562172419776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>100.095494</v>
       </c>
       <c r="O13">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P13">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q13">
-        <v>6892.373156925309</v>
+        <v>2362.192166401519</v>
       </c>
       <c r="R13">
-        <v>62031.35841232778</v>
+        <v>21259.72949761368</v>
       </c>
       <c r="S13">
-        <v>0.06806433324477548</v>
+        <v>0.03524741848010298</v>
       </c>
       <c r="T13">
-        <v>0.06806433324477548</v>
+        <v>0.03524741848010297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N14">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O14">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P14">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q14">
-        <v>8951.219143772556</v>
+        <v>2887.640134470808</v>
       </c>
       <c r="R14">
-        <v>80560.972293953</v>
+        <v>25988.76121023728</v>
       </c>
       <c r="S14">
-        <v>0.08839607909745556</v>
+        <v>0.04308788323292272</v>
       </c>
       <c r="T14">
-        <v>0.08839607909745555</v>
+        <v>0.04308788323292272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H15">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N15">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O15">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P15">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q15">
-        <v>2138.57388332456</v>
+        <v>733.4515373721493</v>
       </c>
       <c r="R15">
-        <v>19247.16494992104</v>
+        <v>6601.063836349344</v>
       </c>
       <c r="S15">
-        <v>0.02111908368120206</v>
+        <v>0.01094418720049076</v>
       </c>
       <c r="T15">
-        <v>0.02111908368120206</v>
+        <v>0.01094418720049075</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H16">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N16">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O16">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P16">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q16">
-        <v>9485.554010368263</v>
+        <v>2742.645603332352</v>
       </c>
       <c r="R16">
-        <v>85369.98609331436</v>
+        <v>24683.81042999116</v>
       </c>
       <c r="S16">
-        <v>0.09367280245474068</v>
+        <v>0.04092434929649919</v>
       </c>
       <c r="T16">
-        <v>0.09367280245474068</v>
+        <v>0.04092434929649918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H17">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I17">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J17">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N17">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O17">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P17">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q17">
-        <v>380.8702001433607</v>
+        <v>489.4677773747519</v>
       </c>
       <c r="R17">
-        <v>3427.831801290246</v>
+        <v>4405.209996372768</v>
       </c>
       <c r="S17">
-        <v>0.00376121194185699</v>
+        <v>0.007303586823732285</v>
       </c>
       <c r="T17">
-        <v>0.00376121194185699</v>
+        <v>0.007303586823732285</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H18">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I18">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J18">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>100.095494</v>
       </c>
       <c r="O18">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P18">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q18">
-        <v>519.6222457816316</v>
+        <v>690.772617081184</v>
       </c>
       <c r="R18">
-        <v>4676.600212034685</v>
+        <v>6216.953553730656</v>
       </c>
       <c r="S18">
-        <v>0.005131431640891766</v>
+        <v>0.01030735426828006</v>
       </c>
       <c r="T18">
-        <v>0.005131431640891766</v>
+        <v>0.01030735426828006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H19">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I19">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J19">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N19">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O19">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P19">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q19">
-        <v>674.8405067559568</v>
+        <v>844.4286460892479</v>
       </c>
       <c r="R19">
-        <v>6073.56456080361</v>
+        <v>7599.857814803232</v>
       </c>
       <c r="S19">
-        <v>0.006664260348811576</v>
+        <v>0.01260013062808341</v>
       </c>
       <c r="T19">
-        <v>0.006664260348811573</v>
+        <v>0.01260013062808341</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N20">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O20">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P20">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q20">
-        <v>161.2290191958762</v>
+        <v>214.482227643904</v>
       </c>
       <c r="R20">
-        <v>1451.061172762886</v>
+        <v>1930.340048795136</v>
       </c>
       <c r="S20">
-        <v>0.001592186818882555</v>
+        <v>0.003200393660531839</v>
       </c>
       <c r="T20">
-        <v>0.001592186818882555</v>
+        <v>0.003200393660531839</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H21">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I21">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J21">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N21">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O21">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P21">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q21">
-        <v>715.124495602514</v>
+        <v>802.0280941097921</v>
       </c>
       <c r="R21">
-        <v>6436.120460422626</v>
+        <v>7218.252846988129</v>
       </c>
       <c r="S21">
-        <v>0.007062077295000259</v>
+        <v>0.01196745136487007</v>
       </c>
       <c r="T21">
-        <v>0.007062077295000259</v>
+        <v>0.01196745136487007</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H22">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N22">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O22">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P22">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q22">
-        <v>3467.212831812704</v>
+        <v>1983.157517884385</v>
       </c>
       <c r="R22">
-        <v>31204.91548631434</v>
+        <v>17848.41766095947</v>
       </c>
       <c r="S22">
-        <v>0.03423980742800328</v>
+        <v>0.02959165809584333</v>
       </c>
       <c r="T22">
-        <v>0.03423980742800327</v>
+        <v>0.02959165809584333</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H23">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>100.095494</v>
       </c>
       <c r="O23">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P23">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q23">
-        <v>4730.327858654378</v>
+        <v>2798.776491602172</v>
       </c>
       <c r="R23">
-        <v>42572.95072788941</v>
+        <v>25188.98842441956</v>
       </c>
       <c r="S23">
-        <v>0.0467134620250489</v>
+        <v>0.04176190558706983</v>
       </c>
       <c r="T23">
-        <v>0.0467134620250489</v>
+        <v>0.04176190558706983</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H24">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N24">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O24">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P24">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q24">
-        <v>6143.341389193818</v>
+        <v>3421.338635999059</v>
       </c>
       <c r="R24">
-        <v>55290.07250274436</v>
+        <v>30792.04772399153</v>
       </c>
       <c r="S24">
-        <v>0.06066741106876512</v>
+        <v>0.05105145820922403</v>
       </c>
       <c r="T24">
-        <v>0.0606674110687651</v>
+        <v>0.05105145820922402</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H25">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N25">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O25">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P25">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q25">
-        <v>1467.731851969789</v>
+        <v>869.0092828703928</v>
       </c>
       <c r="R25">
-        <v>13209.5866677281</v>
+        <v>7821.083545833536</v>
       </c>
       <c r="S25">
-        <v>0.01449430952328308</v>
+        <v>0.01296691026754529</v>
       </c>
       <c r="T25">
-        <v>0.01449430952328308</v>
+        <v>0.01296691026754529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N26">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O26">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P26">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q26">
-        <v>6510.062552973</v>
+        <v>3249.545971992648</v>
       </c>
       <c r="R26">
-        <v>58590.56297675701</v>
+        <v>29245.91374793383</v>
       </c>
       <c r="S26">
-        <v>0.06428889686633807</v>
+        <v>0.04848805629545423</v>
       </c>
       <c r="T26">
-        <v>0.06428889686633807</v>
+        <v>0.0484880562954542</v>
       </c>
     </row>
   </sheetData>
